--- a/soil calibration.xlsx
+++ b/soil calibration.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2" documentId="8_{B71E6A64-91E9-4406-965A-AACF80F6819C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4993878E-4103-440C-A13D-7424D401C445}"/>
   <bookViews>
-    <workbookView xWindow="29550" yWindow="-21000" windowWidth="20085" windowHeight="11370" activeTab="1" xr2:uid="{3CA09F7E-5538-4052-9A87-B27F91B9EC68}"/>
+    <workbookView xWindow="29550" yWindow="-21000" windowWidth="20085" windowHeight="11370" firstSheet="1" activeTab="1" xr2:uid="{3CA09F7E-5538-4052-9A87-B27F91B9EC68}"/>
   </bookViews>
   <sheets>
     <sheet name="Prueba ESP8266 (2)" sheetId="3" r:id="rId1"/>
@@ -19,10 +19,21 @@
     <sheet name="Prueba ESP8266" sheetId="2" r:id="rId4"/>
     <sheet name="Prueba ESP32" sheetId="1" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -31,31 +42,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="61">
   <si>
+    <t>Masa del contenedor [g]</t>
+  </si>
+  <si>
+    <t>Agua agregada [ml]</t>
+  </si>
+  <si>
+    <t>Peso de la tierra + agua +contenedor [g]</t>
+  </si>
+  <si>
     <t>Lectura del sensor [V]</t>
   </si>
   <si>
     <t>Volumen de la tierra</t>
   </si>
   <si>
-    <t>Masa del contenedor [g]</t>
+    <t>Inversa voltaje</t>
   </si>
   <si>
-    <t>Lectura del sensor al aire [V]</t>
+    <t>thetha</t>
   </si>
   <si>
-    <t>Masa de tierra seca [g]</t>
+    <t>inversa voltaje</t>
   </si>
   <si>
-    <t>Densidad de la tierra [g/cm^3]</t>
+    <t>tetha v</t>
   </si>
   <si>
     <t>Peso de la tierra + contenedor [g]</t>
   </si>
   <si>
-    <t>Densidad del agua [kg/m3]</t>
+    <t>0 ml</t>
   </si>
   <si>
-    <t>Agua agregada [ml]</t>
+    <t>Lectura del sensor al aire [V]</t>
   </si>
   <si>
     <t>10 ml</t>
@@ -64,10 +84,16 @@
     <t>20 ml</t>
   </si>
   <si>
+    <t>Densidad del agua [kg/m3]</t>
+  </si>
+  <si>
     <t>30 ml</t>
   </si>
   <si>
     <t>40 ml</t>
+  </si>
+  <si>
+    <t>Masa de tierra seca [g]</t>
   </si>
   <si>
     <t>50 ml</t>
@@ -76,36 +102,22 @@
     <t>60 ml</t>
   </si>
   <si>
+    <t>Densidad de la tierra [g/cm^3]</t>
+  </si>
+  <si>
     <t>70 ml</t>
   </si>
   <si>
     <t>80 ML</t>
   </si>
   <si>
-    <t>tetha v</t>
+    <t>slope</t>
   </si>
   <si>
-    <t>inversa voltaje</t>
+    <t>intercept</t>
   </si>
   <si>
-    <t>0 ml</t>
-  </si>
-  <si>
-    <t>Peso de la tierra + 
-contenedor [g] +
- sensor [g]</t>
-  </si>
-  <si>
-    <t>Inversa voltaje</t>
-  </si>
-  <si>
-    <t>thetha</t>
-  </si>
-  <si>
-    <t>peso con tierra agregada</t>
-  </si>
-  <si>
-    <t>Peso de la tierra + agua +contenedor [g]</t>
+    <t>Funcion linear</t>
   </si>
   <si>
     <t>X</t>
@@ -114,52 +126,40 @@
     <t>Y</t>
   </si>
   <si>
-    <t>V</t>
+    <t>cant agua</t>
   </si>
   <si>
-    <t>1/v</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>Peso con tacho</t>
-  </si>
-  <si>
-    <t>peso sin tacho</t>
-  </si>
-  <si>
-    <t>peso tacho</t>
+    <t>vol</t>
   </si>
   <si>
     <t>agua</t>
   </si>
   <si>
-    <t>masa suelo seco</t>
+    <t>calib</t>
   </si>
   <si>
-    <t>densidad de suelo</t>
+    <t>sensor1</t>
   </si>
   <si>
-    <t>Funcion linear</t>
+    <t>sensor2</t>
   </si>
   <si>
-    <t>slope</t>
+    <t>1 sobre v</t>
   </si>
   <si>
-    <t>intercept</t>
+    <t>Sensor calibrado</t>
   </si>
   <si>
     <t>sensor 1</t>
   </si>
   <si>
-    <t>sensor2</t>
+    <t>1er punto</t>
   </si>
   <si>
     <t>seco</t>
+  </si>
+  <si>
+    <t>ultimo</t>
   </si>
   <si>
     <t>20ml</t>
@@ -171,28 +171,16 @@
     <t>40ml</t>
   </si>
   <si>
+    <t>aprox linear</t>
+  </si>
+  <si>
     <t>50ml</t>
   </si>
   <si>
     <t>60ml</t>
   </si>
   <si>
-    <t>Sensor calibrado</t>
-  </si>
-  <si>
-    <t>calib</t>
-  </si>
-  <si>
-    <t>sensor1</t>
-  </si>
-  <si>
-    <t>cant agua</t>
-  </si>
-  <si>
-    <t>vol</t>
-  </si>
-  <si>
-    <t>solo 2 puntos</t>
+    <t>Agua</t>
   </si>
   <si>
     <t>medicion</t>
@@ -201,19 +189,42 @@
     <t>aproximacion</t>
   </si>
   <si>
-    <t>Agua</t>
+    <t>solo 2 puntos</t>
   </si>
   <si>
-    <t>1 sobre v</t>
+    <t>x</t>
   </si>
   <si>
-    <t>1er punto</t>
+    <t>y</t>
   </si>
   <si>
-    <t>ultimo</t>
+    <t>peso tacho</t>
   </si>
   <si>
-    <t>aprox linear</t>
+    <t>Peso con tacho</t>
+  </si>
+  <si>
+    <t>peso sin tacho</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>1/v</t>
+  </si>
+  <si>
+    <t>masa suelo seco</t>
+  </si>
+  <si>
+    <t>densidad de suelo</t>
+  </si>
+  <si>
+    <t>Peso de la tierra + 
+contenedor [g] +
+ sensor [g]</t>
+  </si>
+  <si>
+    <t>peso con tierra agregada</t>
   </si>
 </sst>
 </file>
@@ -222,10 +233,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.00000"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,7 +313,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -315,14 +326,13 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -5761,75 +5771,75 @@
       <selection activeCell="H5" sqref="H5:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
-    <col min="8" max="11" width="18.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
+    <col min="8" max="11" width="18.85546875" style="1" customWidth="1"/>
     <col min="12" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="30.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="30.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:19" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="3:19" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:19" ht="7.9" customHeight="1"/>
+    <row r="4" spans="3:19" ht="47.45" customHeight="1">
       <c r="C4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="F4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="N4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="O4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="P4" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="3:19" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19">
       <c r="C5" s="2">
         <v>8.59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2">
         <v>67.94</v>
@@ -5870,12 +5880,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:19">
       <c r="C6" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E6" s="2">
         <v>73.95</v>
@@ -5904,7 +5914,7 @@
         <v>0.67222222222222217</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="O6" s="2">
         <v>20</v>
@@ -5920,12 +5930,12 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="7" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:19">
       <c r="C7" s="2">
         <v>2.25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2">
         <v>76.62</v>
@@ -5968,12 +5978,12 @@
         <v>0.18819444444444444</v>
       </c>
     </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:19">
       <c r="C8" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2">
         <v>82.79</v>
@@ -6002,19 +6012,19 @@
         <v>0.19999999999999998</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:19">
       <c r="C9" s="2">
         <v>997</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E9" s="2">
         <v>84.06</v>
@@ -6050,12 +6060,12 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:19">
       <c r="C10" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2">
         <v>89.65</v>
@@ -6084,19 +6094,19 @@
         <v>0.22916666666666666</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:19">
       <c r="C11" s="2">
         <v>38.200000000000003</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2">
         <v>94.27</v>
@@ -6132,12 +6142,12 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:19">
       <c r="C12" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E12" s="2">
         <v>104.47</v>
@@ -6166,19 +6176,19 @@
         <v>0.24305555555555555</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:19">
       <c r="C13" s="2">
         <v>0.24</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2">
         <v>109.4</v>
@@ -6212,7 +6222,7 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
-    <row r="14" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:19">
       <c r="E14" s="1">
         <v>116.72</v>
       </c>
@@ -6232,28 +6242,28 @@
         <v>0.77519379844961234</v>
       </c>
     </row>
-    <row r="16" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:19">
       <c r="C16" s="1">
         <f>1/0.352263</f>
         <v>2.8387880645994614</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="3:17">
       <c r="C17" s="1">
         <f>1/0.091</f>
         <v>10.989010989010989</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12" t="s">
-        <v>37</v>
+      <c r="F17"/>
+      <c r="G17" t="s">
+        <v>25</v>
       </c>
       <c r="H17" s="1">
         <f t="array" ref="H17:I17">LINEST(I5:I14,H5:H14)</f>
@@ -6263,17 +6273,17 @@
         <v>-0.20574751803634611</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
+    <row r="18" spans="3:17">
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
       <c r="K18" s="1">
         <f>38.2/180</f>
         <v>0.21222222222222223</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:17">
       <c r="E21" s="2">
         <v>2.4</v>
       </c>
@@ -6296,7 +6306,7 @@
         <v>0.33783783783783783</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:17">
       <c r="E22" s="2">
         <v>2.37</v>
       </c>
@@ -6319,7 +6329,7 @@
         <v>0.34482758620689657</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:17">
       <c r="E23" s="2">
         <v>1.97</v>
       </c>
@@ -6342,7 +6352,7 @@
         <v>0.3401360544217687</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:17">
       <c r="E24" s="2">
         <v>0.92</v>
       </c>
@@ -6365,7 +6375,7 @@
         <v>0.35971223021582738</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:17">
       <c r="E25" s="2">
         <v>0.87</v>
       </c>
@@ -6388,7 +6398,7 @@
         <v>0.41152263374485593</v>
       </c>
     </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:17">
       <c r="E26" s="2">
         <v>0.86</v>
       </c>
@@ -6411,7 +6421,7 @@
         <v>0.48076923076923073</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:17">
       <c r="E27" s="2">
         <v>0.84</v>
       </c>
@@ -6434,7 +6444,7 @@
         <v>0.49019607843137253</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:17">
       <c r="E28" s="2">
         <v>0.85</v>
       </c>
@@ -6457,7 +6467,7 @@
         <v>0.49751243781094534</v>
       </c>
     </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:17">
       <c r="E29" s="2">
         <v>0.83</v>
       </c>
@@ -6480,15 +6490,15 @@
         <v>0.5524861878453039</v>
       </c>
     </row>
-    <row r="48" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="15:16">
       <c r="O48" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P48" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="15:16" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="15:16">
       <c r="O49" s="10">
         <v>0.47619047619047616</v>
       </c>
@@ -6496,7 +6506,7 @@
         <v>3.0140421263791399E-2</v>
       </c>
     </row>
-    <row r="50" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="15:16">
       <c r="O50" s="10">
         <v>0.51282051282051289</v>
       </c>
@@ -6504,7 +6514,7 @@
         <v>4.3530591775326012E-2</v>
       </c>
     </row>
-    <row r="51" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="15:16">
       <c r="O51" s="10">
         <v>0.5524861878453039</v>
       </c>
@@ -6512,7 +6522,7 @@
         <v>7.447342026078238E-2</v>
       </c>
     </row>
-    <row r="52" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="15:16">
       <c r="O52" s="10">
         <v>0.56818181818181823</v>
       </c>
@@ -6520,7 +6530,7 @@
         <v>8.0842527582748264E-2</v>
       </c>
     </row>
-    <row r="53" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="15:16">
       <c r="O53" s="10">
         <v>0.58139534883720934</v>
       </c>
@@ -6528,7 +6538,7 @@
         <v>0.10887662988966905</v>
       </c>
     </row>
-    <row r="54" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="15:16">
       <c r="O54" s="10">
         <v>0.625</v>
       </c>
@@ -6536,7 +6546,7 @@
         <v>0.13204613841524573</v>
       </c>
     </row>
-    <row r="55" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="15:16">
       <c r="O55" s="10">
         <v>0.68965517241379315</v>
       </c>
@@ -6544,7 +6554,7 @@
         <v>0.18319959879638917</v>
       </c>
     </row>
-    <row r="56" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="15:16">
       <c r="O56" s="10">
         <v>0.76923076923076916</v>
       </c>
@@ -6552,7 +6562,7 @@
         <v>0.20792377131394185</v>
       </c>
     </row>
-    <row r="57" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="15:16">
       <c r="O57" s="10">
         <v>0.77519379844961234</v>
       </c>
@@ -6560,7 +6570,7 @@
         <v>0.24463390170511534</v>
       </c>
     </row>
-    <row r="62" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="15:16">
       <c r="O62" s="1">
         <f>LINEST((P49:P57),O49:O57,TRUE)</f>
         <v>0.69171129574359136</v>
@@ -6580,48 +6590,48 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22">
       <c r="I4" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="K4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" t="s">
         <v>34</v>
       </c>
-      <c r="L4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" t="s">
-        <v>50</v>
-      </c>
-      <c r="N4" t="s">
-        <v>41</v>
-      </c>
-      <c r="U4" t="s">
-        <v>57</v>
-      </c>
       <c r="V4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22">
       <c r="C5" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -6629,7 +6639,7 @@
       <c r="J5">
         <v>200</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="12">
         <v>0</v>
       </c>
       <c r="L5">
@@ -6642,7 +6652,7 @@
         <v>27</v>
       </c>
       <c r="T5" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="U5">
         <v>0.45454545454545453</v>
@@ -6651,17 +6661,17 @@
         <v>0.18741039873547338</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:22">
       <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="13">
+        <v>38</v>
+      </c>
+      <c r="C6" s="12">
         <v>0.3</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>0.09</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>0.27</v>
       </c>
       <c r="I6">
@@ -6670,7 +6680,7 @@
       <c r="J6">
         <v>210</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="12">
         <f>I6/J6*100</f>
         <v>4.7619047619047619</v>
       </c>
@@ -6684,7 +6694,7 @@
         <v>26</v>
       </c>
       <c r="T6" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="U6">
         <v>0.77519379844961234</v>
@@ -6693,17 +6703,17 @@
         <v>0.49480378307697959</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:22">
       <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="13">
+        <v>12</v>
+      </c>
+      <c r="C7" s="12">
         <v>0.43</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>0.08</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>0.26</v>
       </c>
       <c r="I7">
@@ -6712,7 +6722,7 @@
       <c r="J7">
         <v>220</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="12">
         <f t="shared" ref="K7:K10" si="0">I7/J7*100</f>
         <v>9.0909090909090917</v>
       </c>
@@ -6726,17 +6736,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:22">
       <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="13">
+        <v>40</v>
+      </c>
+      <c r="C8" s="12">
         <v>0.6</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>0.27</v>
       </c>
       <c r="I8">
@@ -6745,7 +6755,7 @@
       <c r="J8">
         <v>230</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="12">
         <f t="shared" si="0"/>
         <v>13.043478260869565</v>
       </c>
@@ -6759,17 +6769,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:22">
       <c r="B9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="13">
+        <v>41</v>
+      </c>
+      <c r="C9" s="12">
         <v>0.64</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>0.66</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>0.42</v>
       </c>
       <c r="I9">
@@ -6778,7 +6788,7 @@
       <c r="J9">
         <v>240</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="12">
         <f t="shared" si="0"/>
         <v>16.666666666666664</v>
       </c>
@@ -6792,17 +6802,17 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:22">
       <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="13">
+        <v>42</v>
+      </c>
+      <c r="C10" s="12">
         <v>0.75</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>0.94</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <v>0.81</v>
       </c>
       <c r="I10">
@@ -6811,7 +6821,7 @@
       <c r="J10">
         <v>250</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="12">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -6825,7 +6835,7 @@
         <v>86</v>
       </c>
       <c r="T10" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="U10">
         <f t="array" ref="U10:V10">LINEST(V5:V6,U5:U6,TRUE,TRUE)</f>
@@ -6835,196 +6845,196 @@
         <v>-0.24834505818820019</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:22">
       <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22">
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="15" spans="2:22">
+      <c r="T15" s="15"/>
+      <c r="U15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="V15" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22">
+      <c r="T16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U16" s="15">
+        <v>0.88612243217591091</v>
+      </c>
+      <c r="V16" s="15">
+        <v>-0.20574751803634611</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22">
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+    </row>
+    <row r="18" spans="2:22">
+      <c r="B18" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="D11" s="14">
-        <v>0.98</v>
-      </c>
-      <c r="E11" s="14">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="C18" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="T15" s="16"/>
-      <c r="U15" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="V15" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="T16" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="U16" s="16">
-        <v>0.88612243217591091</v>
-      </c>
-      <c r="V16" s="16">
-        <v>-0.20574751803634611</v>
-      </c>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" t="s">
-        <v>54</v>
-      </c>
       <c r="D18" t="s">
-        <v>55</v>
-      </c>
-      <c r="T18" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="U18" s="16">
+        <v>48</v>
+      </c>
+      <c r="T18" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="U18" s="15">
         <v>0.958662005232082</v>
       </c>
-      <c r="V18" s="16">
+      <c r="V18" s="15">
         <v>-0.24834505818820019</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B19" s="15">
+    <row r="19" spans="2:22">
+      <c r="B19" s="14">
         <v>0.45454545454545453</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="14">
         <f>B19*$U$16+$V$16</f>
         <v>0.19703540567997702</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="14">
         <f>B19*$U$18+$V$18</f>
         <v>0.18741039873547344</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B20" s="15">
+    <row r="20" spans="2:22">
+      <c r="B20" s="14">
         <v>0.47619047619047616</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="14">
         <f t="shared" ref="C20:C28" si="1">B20*$U$16+$V$16</f>
         <v>0.21621554490456385</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="14">
         <f t="shared" ref="D20:D28" si="2">B20*$U$18+$V$18</f>
         <v>0.2081606585889817</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B21" s="15">
+    <row r="21" spans="2:22">
+      <c r="B21" s="14">
         <v>0.51282051282051289</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="14">
         <f t="shared" si="1"/>
         <v>0.24867424205386468</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="14">
         <f t="shared" si="2"/>
         <v>0.24327648295645732</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B22" s="15">
+    <row r="22" spans="2:22">
+      <c r="B22" s="14">
         <v>0.5524861878453039</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="14">
         <f t="shared" si="1"/>
         <v>0.28382288648073178</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="14">
         <f t="shared" si="2"/>
         <v>0.28130245851460756</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B23" s="15">
+    <row r="23" spans="2:22">
+      <c r="B23" s="14">
         <v>0.56818181818181823</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="14">
         <f t="shared" si="1"/>
         <v>0.29773113660905787</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="14">
         <f t="shared" si="2"/>
         <v>0.29634926296639186</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B24" s="15">
+    <row r="24" spans="2:22">
+      <c r="B24" s="14">
         <v>0.58139534883720934</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="14">
         <f t="shared" si="1"/>
         <v>0.30943994253104395</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="14">
         <f t="shared" si="2"/>
         <v>0.30901657276068473</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B25" s="15">
+    <row r="25" spans="2:22">
+      <c r="B25" s="14">
         <v>0.625</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="14">
         <f t="shared" si="1"/>
         <v>0.34807900207359826</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="14">
         <f t="shared" si="2"/>
         <v>0.35081869508185104</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B26" s="15">
+    <row r="26" spans="2:22">
+      <c r="B26" s="14">
         <v>0.68965517241379315</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="14">
         <f t="shared" si="1"/>
         <v>0.40537140070566141</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="14">
         <f t="shared" si="2"/>
         <v>0.41280115231668402</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B27" s="15">
+    <row r="27" spans="2:22">
+      <c r="B27" s="14">
         <v>0.76923076923076916</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="14">
         <f t="shared" si="1"/>
         <v>0.47588512209896988</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="14">
         <f t="shared" si="2"/>
         <v>0.4890872535287859</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B28" s="15">
+    <row r="28" spans="2:22">
+      <c r="B28" s="14">
         <v>0.77519379844961234</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7040,40 +7050,40 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="5:11">
       <c r="J1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="K1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="5:11" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="5:11">
       <c r="E2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="5:11" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="5:11">
       <c r="E3">
         <v>22.75</v>
       </c>
@@ -7096,9 +7106,9 @@
         <v>6.870611835506521E-2</v>
       </c>
     </row>
-    <row r="4" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="5:11">
       <c r="E4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G4">
         <v>71.510000000000005</v>
@@ -7119,7 +7129,7 @@
         <v>0.11248746238716154</v>
       </c>
     </row>
-    <row r="5" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="5:11">
       <c r="E5">
         <v>997</v>
       </c>
@@ -7142,9 +7152,9 @@
         <v>0.16715145436308926</v>
       </c>
     </row>
-    <row r="6" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:11">
       <c r="E6" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G6">
         <v>96.94</v>
@@ -7165,7 +7175,7 @@
         <v>0.24002006018054162</v>
       </c>
     </row>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:11">
       <c r="E7">
         <v>26.33</v>
       </c>
@@ -7188,9 +7198,9 @@
         <v>0.30160481444332998</v>
       </c>
     </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:11">
       <c r="E8" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="G8">
         <v>132.37</v>
@@ -7211,7 +7221,7 @@
         <v>0.41770310932798399</v>
       </c>
     </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:11">
       <c r="E9">
         <v>0.13164999999999999</v>
       </c>
@@ -7234,7 +7244,7 @@
         <v>0.45045135406218662</v>
       </c>
     </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:11">
       <c r="G10">
         <v>159.02000000000001</v>
       </c>
@@ -7254,7 +7264,7 @@
         <v>0.5513540621865598</v>
       </c>
     </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:11">
       <c r="G11">
         <v>186.75</v>
       </c>
@@ -7274,7 +7284,7 @@
         <v>0.69042126379137414</v>
       </c>
     </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="5:11">
       <c r="J15">
         <f>LINEST(K3:K11,J3:J11,TRUE)</f>
         <v>2.4768838558099118</v>
@@ -7293,77 +7303,77 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" style="1" customWidth="1"/>
-    <col min="10" max="13" width="18.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" style="1" customWidth="1"/>
+    <col min="10" max="13" width="18.85546875" style="1" customWidth="1"/>
     <col min="14" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.33203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="30.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="30.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:21" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="3:21" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:21" ht="7.9" customHeight="1"/>
+    <row r="4" spans="3:21" ht="47.45" customHeight="1">
       <c r="C4" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="R4" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="3:21" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="3:21">
       <c r="C5" s="2">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2">
         <v>60</v>
@@ -7385,10 +7395,10 @@
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="P5" s="2">
         <v>8</v>
@@ -7404,12 +7414,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:21">
       <c r="C6" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E6" s="2">
         <v>70</v>
@@ -7442,7 +7452,7 @@
         <v>0.67222222222222217</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="2">
         <v>20</v>
@@ -7458,12 +7468,12 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="7" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:21">
       <c r="C7" s="2">
         <v>2.1800000000000002</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2">
         <v>81</v>
@@ -7512,12 +7522,12 @@
         <v>0.18819444444444444</v>
       </c>
     </row>
-    <row r="8" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:21">
       <c r="C8" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2">
@@ -7550,19 +7560,19 @@
         <v>0.19999999999999998</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:21">
       <c r="C9" s="2">
         <v>997</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2">
@@ -7602,12 +7612,12 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:21">
       <c r="C10" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2">
@@ -7640,19 +7650,19 @@
         <v>0.22916666666666666</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:21">
       <c r="C11" s="2">
         <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -7686,12 +7696,12 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:21">
       <c r="C12" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -7718,20 +7728,20 @@
         <v>0.24305555555555555</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:21">
       <c r="C13" s="2">
         <f>C11/I5</f>
         <v>0.3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -7763,19 +7773,19 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="16" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:21">
       <c r="C16" s="1">
         <f>1/0.352263</f>
         <v>2.8387880645994614</v>
       </c>
     </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:19">
       <c r="C17" s="1">
         <f>1/0.091</f>
         <v>10.989010989010989</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:19">
       <c r="E21" s="2">
         <v>2.4</v>
       </c>
@@ -7798,7 +7808,7 @@
         <v>0.33783783783783783</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:19">
       <c r="E22" s="2">
         <v>2.37</v>
       </c>
@@ -7821,7 +7831,7 @@
         <v>0.34482758620689657</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:19">
       <c r="E23" s="2">
         <v>1.97</v>
       </c>
@@ -7844,7 +7854,7 @@
         <v>0.3401360544217687</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:19">
       <c r="E24" s="2">
         <v>0.92</v>
       </c>
@@ -7867,7 +7877,7 @@
         <v>0.35971223021582738</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:19">
       <c r="E25" s="2">
         <v>0.87</v>
       </c>
@@ -7890,7 +7900,7 @@
         <v>0.41152263374485593</v>
       </c>
     </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:19">
       <c r="E26" s="2">
         <v>0.86</v>
       </c>
@@ -7913,7 +7923,7 @@
         <v>0.48076923076923073</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:19">
       <c r="E27" s="2">
         <v>0.84</v>
       </c>
@@ -7936,7 +7946,7 @@
         <v>0.49019607843137253</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:19">
       <c r="E28" s="2">
         <v>0.85</v>
       </c>
@@ -7959,7 +7969,7 @@
         <v>0.49751243781094534</v>
       </c>
     </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:19">
       <c r="E29" s="2">
         <v>0.83</v>
       </c>
@@ -7996,57 +8006,57 @@
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="18.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="18.85546875" style="1" customWidth="1"/>
     <col min="11" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="30.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="30.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:18">
       <c r="C4" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="O4" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="3:18" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="3:18">
       <c r="C5" s="2">
         <v>8</v>
       </c>
@@ -8061,10 +8071,10 @@
         <v>200</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="M5" s="2">
         <v>8</v>
@@ -8080,12 +8090,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:18">
       <c r="C6" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E6" s="2">
         <v>68</v>
@@ -8106,7 +8116,7 @@
         <v>0.67222222222222217</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="N6" s="2">
         <v>20</v>
@@ -8122,12 +8132,12 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="7" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:18">
       <c r="C7" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2">
         <v>78</v>
@@ -8162,12 +8172,12 @@
         <v>0.18819444444444444</v>
       </c>
     </row>
-    <row r="8" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:18">
       <c r="C8" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2">
         <f>96-12</f>
@@ -8189,19 +8199,19 @@
         <v>0.19999999999999998</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:18">
       <c r="C9" s="2">
         <v>997</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E9" s="2">
         <v>96</v>
@@ -8229,12 +8239,12 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:18">
       <c r="C10" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2">
         <v>108</v>
@@ -8255,19 +8265,19 @@
         <v>0.22916666666666666</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:18">
       <c r="C11" s="2">
         <v>50</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2">
         <v>117</v>
@@ -8295,12 +8305,12 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:18">
       <c r="C12" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E12" s="2">
         <v>127</v>
@@ -8321,20 +8331,20 @@
         <v>0.24305555555555555</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:18">
       <c r="C13" s="2">
         <f>C11/G5</f>
         <v>0.25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2">
         <v>137</v>
@@ -8360,7 +8370,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="21" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:16">
       <c r="E21" s="2">
         <v>2.4</v>
       </c>
@@ -8383,7 +8393,7 @@
         <v>0.33783783783783783</v>
       </c>
     </row>
-    <row r="22" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:16">
       <c r="E22" s="2">
         <v>2.37</v>
       </c>
@@ -8406,7 +8416,7 @@
         <v>0.34482758620689657</v>
       </c>
     </row>
-    <row r="23" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:16">
       <c r="E23" s="2">
         <v>1.97</v>
       </c>
@@ -8429,7 +8439,7 @@
         <v>0.3401360544217687</v>
       </c>
     </row>
-    <row r="24" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:16">
       <c r="E24" s="2">
         <v>0.92</v>
       </c>
@@ -8452,7 +8462,7 @@
         <v>0.35971223021582738</v>
       </c>
     </row>
-    <row r="25" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:16">
       <c r="E25" s="2">
         <v>0.87</v>
       </c>
@@ -8475,7 +8485,7 @@
         <v>0.41152263374485593</v>
       </c>
     </row>
-    <row r="26" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:16">
       <c r="E26" s="2">
         <v>0.86</v>
       </c>
@@ -8498,7 +8508,7 @@
         <v>0.48076923076923073</v>
       </c>
     </row>
-    <row r="27" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:16">
       <c r="E27" s="2">
         <v>0.84</v>
       </c>
@@ -8521,7 +8531,7 @@
         <v>0.49019607843137253</v>
       </c>
     </row>
-    <row r="28" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:16">
       <c r="E28" s="2">
         <v>0.85</v>
       </c>
@@ -8544,7 +8554,7 @@
         <v>0.49751243781094534</v>
       </c>
     </row>
-    <row r="29" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:16">
       <c r="E29" s="2">
         <v>0.83</v>
       </c>
